--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Lgi2</t>
+  </si>
+  <si>
+    <t>Adam22</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Lgi2</t>
-  </si>
-  <si>
-    <t>Adam22</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,25 +528,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.02053466666666667</v>
+        <v>10.27464766666667</v>
       </c>
       <c r="H2">
-        <v>0.061604</v>
+        <v>30.823943</v>
       </c>
       <c r="I2">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680073</v>
       </c>
       <c r="J2">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680074</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.078423333333333</v>
+        <v>1.594873333333333</v>
       </c>
       <c r="N2">
-        <v>9.23527</v>
+        <v>4.78462</v>
       </c>
       <c r="O2">
-        <v>0.2543225865010234</v>
+        <v>0.09372679355272211</v>
       </c>
       <c r="P2">
-        <v>0.2543225865010234</v>
+        <v>0.09372679355272213</v>
       </c>
       <c r="Q2">
-        <v>0.06321439700888888</v>
+        <v>16.38676157296222</v>
       </c>
       <c r="R2">
-        <v>0.56892957308</v>
+        <v>147.48085415666</v>
       </c>
       <c r="S2">
-        <v>0.0004908768247966416</v>
+        <v>0.0895156666640807</v>
       </c>
       <c r="T2">
-        <v>0.0004908768247966415</v>
+        <v>0.08951566666408073</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.02053466666666667</v>
+        <v>10.27464766666667</v>
       </c>
       <c r="H3">
-        <v>0.061604</v>
+        <v>30.823943</v>
       </c>
       <c r="I3">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680073</v>
       </c>
       <c r="J3">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.736331</v>
       </c>
       <c r="O3">
-        <v>0.378273643212834</v>
+        <v>0.2690834924840127</v>
       </c>
       <c r="P3">
-        <v>0.3782736432128339</v>
+        <v>0.2690834924840128</v>
       </c>
       <c r="Q3">
-        <v>0.094023659436</v>
+        <v>47.04532041923699</v>
       </c>
       <c r="R3">
-        <v>0.846212934924</v>
+        <v>423.407883773133</v>
       </c>
       <c r="S3">
-        <v>0.0007301190485644358</v>
+        <v>0.2569936226875861</v>
       </c>
       <c r="T3">
-        <v>0.0007301190485644357</v>
+        <v>0.2569936226875862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.02053466666666667</v>
+        <v>10.27464766666667</v>
       </c>
       <c r="H4">
-        <v>0.061604</v>
+        <v>30.823943</v>
       </c>
       <c r="I4">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680073</v>
       </c>
       <c r="J4">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.574363333333334</v>
+        <v>4.495828</v>
       </c>
       <c r="N4">
-        <v>10.72309</v>
+        <v>13.487484</v>
       </c>
       <c r="O4">
-        <v>0.2952944509563076</v>
+        <v>0.2642087832291055</v>
       </c>
       <c r="P4">
-        <v>0.2952944509563076</v>
+        <v>0.2642087832291055</v>
       </c>
       <c r="Q4">
-        <v>0.07339835959555556</v>
+        <v>46.19304866993467</v>
       </c>
       <c r="R4">
-        <v>0.66058523636</v>
+        <v>415.737438029412</v>
       </c>
       <c r="S4">
-        <v>0.0005699580381741541</v>
+        <v>0.2523379331861511</v>
       </c>
       <c r="T4">
-        <v>0.0005699580381741541</v>
+        <v>0.2523379331861511</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,25 +714,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.02053466666666667</v>
+        <v>10.27464766666667</v>
       </c>
       <c r="H5">
-        <v>0.061604</v>
+        <v>30.823943</v>
       </c>
       <c r="I5">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680073</v>
       </c>
       <c r="J5">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680074</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8728403333333333</v>
+        <v>6.346716</v>
       </c>
       <c r="N5">
-        <v>2.618521</v>
+        <v>19.040148</v>
       </c>
       <c r="O5">
-        <v>0.07210931932983511</v>
+        <v>0.3729809307341596</v>
       </c>
       <c r="P5">
-        <v>0.07210931932983509</v>
+        <v>0.3729809307341597</v>
       </c>
       <c r="Q5">
-        <v>0.01792348529822222</v>
+        <v>65.210270740396</v>
       </c>
       <c r="R5">
-        <v>0.161311367684</v>
+        <v>586.8924366635639</v>
       </c>
       <c r="S5">
-        <v>0.0001391806925128693</v>
+        <v>0.3562229689301894</v>
       </c>
       <c r="T5">
-        <v>0.0001391806925128693</v>
+        <v>0.3562229689301895</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.27464766666667</v>
+        <v>0.475652</v>
       </c>
       <c r="H6">
-        <v>30.823943</v>
+        <v>1.426956</v>
       </c>
       <c r="I6">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596928</v>
       </c>
       <c r="J6">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596929</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.078423333333333</v>
+        <v>1.594873333333333</v>
       </c>
       <c r="N6">
-        <v>9.23527</v>
+        <v>4.78462</v>
       </c>
       <c r="O6">
-        <v>0.2543225865010234</v>
+        <v>0.09372679355272211</v>
       </c>
       <c r="P6">
-        <v>0.2543225865010234</v>
+        <v>0.09372679355272213</v>
       </c>
       <c r="Q6">
-        <v>31.62971511884556</v>
+        <v>0.7586046907466666</v>
       </c>
       <c r="R6">
-        <v>284.66743606961</v>
+        <v>6.82744221672</v>
       </c>
       <c r="S6">
-        <v>0.2456132599758566</v>
+        <v>0.004144016151350589</v>
       </c>
       <c r="T6">
-        <v>0.2456132599758565</v>
+        <v>0.004144016151350591</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.27464766666667</v>
+        <v>0.475652</v>
       </c>
       <c r="H7">
-        <v>30.823943</v>
+        <v>1.426956</v>
       </c>
       <c r="I7">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596928</v>
       </c>
       <c r="J7">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596929</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>13.736331</v>
       </c>
       <c r="O7">
-        <v>0.378273643212834</v>
+        <v>0.2690834924840127</v>
       </c>
       <c r="P7">
-        <v>0.3782736432128339</v>
+        <v>0.2690834924840128</v>
       </c>
       <c r="Q7">
-        <v>47.04532041923699</v>
+        <v>2.177904437604</v>
       </c>
       <c r="R7">
-        <v>423.407883773133</v>
+        <v>19.601139938436</v>
       </c>
       <c r="S7">
-        <v>0.3653195886008117</v>
+        <v>0.01189719926019157</v>
       </c>
       <c r="T7">
-        <v>0.3653195886008116</v>
+        <v>0.01189719926019157</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.27464766666667</v>
+        <v>0.475652</v>
       </c>
       <c r="H8">
-        <v>30.823943</v>
+        <v>1.426956</v>
       </c>
       <c r="I8">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596928</v>
       </c>
       <c r="J8">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596929</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.574363333333334</v>
+        <v>4.495828</v>
       </c>
       <c r="N8">
-        <v>10.72309</v>
+        <v>13.487484</v>
       </c>
       <c r="O8">
-        <v>0.2952944509563076</v>
+        <v>0.2642087832291055</v>
       </c>
       <c r="P8">
-        <v>0.2952944509563076</v>
+        <v>0.2642087832291055</v>
       </c>
       <c r="Q8">
-        <v>36.72532388265223</v>
+        <v>2.138449579856</v>
       </c>
       <c r="R8">
-        <v>330.52791494387</v>
+        <v>19.246046218704</v>
       </c>
       <c r="S8">
-        <v>0.2851820349501972</v>
+        <v>0.01168166992093054</v>
       </c>
       <c r="T8">
-        <v>0.2851820349501972</v>
+        <v>0.01168166992093054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.27464766666667</v>
+        <v>0.475652</v>
       </c>
       <c r="H9">
-        <v>30.823943</v>
+        <v>1.426956</v>
       </c>
       <c r="I9">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596928</v>
       </c>
       <c r="J9">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596929</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.8728403333333333</v>
+        <v>6.346716</v>
       </c>
       <c r="N9">
-        <v>2.618521</v>
+        <v>19.040148</v>
       </c>
       <c r="O9">
-        <v>0.07210931932983511</v>
+        <v>0.3729809307341596</v>
       </c>
       <c r="P9">
-        <v>0.07210931932983509</v>
+        <v>0.3729809307341597</v>
       </c>
       <c r="Q9">
-        <v>8.968126894255889</v>
+        <v>3.018828158832</v>
       </c>
       <c r="R9">
-        <v>80.713142048303</v>
+        <v>27.16945342948799</v>
       </c>
       <c r="S9">
-        <v>0.06963992164010797</v>
+        <v>0.01649089809349658</v>
       </c>
       <c r="T9">
-        <v>0.06963992164010796</v>
+        <v>0.01649089809349659</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.3437993333333333</v>
+        <v>0.007703000000000001</v>
       </c>
       <c r="H10">
-        <v>1.031398</v>
+        <v>0.023109</v>
       </c>
       <c r="I10">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233982</v>
       </c>
       <c r="J10">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233983</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.078423333333333</v>
+        <v>1.594873333333333</v>
       </c>
       <c r="N10">
-        <v>9.23527</v>
+        <v>4.78462</v>
       </c>
       <c r="O10">
-        <v>0.2543225865010234</v>
+        <v>0.09372679355272211</v>
       </c>
       <c r="P10">
-        <v>0.2543225865010234</v>
+        <v>0.09372679355272213</v>
       </c>
       <c r="Q10">
-        <v>1.058359889717778</v>
+        <v>0.01228530928666667</v>
       </c>
       <c r="R10">
-        <v>9.52523900746</v>
+        <v>0.11056778358</v>
       </c>
       <c r="S10">
-        <v>0.008218449700370212</v>
+        <v>6.711073729082101E-05</v>
       </c>
       <c r="T10">
-        <v>0.008218449700370211</v>
+        <v>6.711073729082103E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,25 +1086,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.3437993333333333</v>
+        <v>0.007703000000000001</v>
       </c>
       <c r="H11">
-        <v>1.031398</v>
+        <v>0.023109</v>
       </c>
       <c r="I11">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233982</v>
       </c>
       <c r="J11">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233983</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.736331</v>
       </c>
       <c r="O11">
-        <v>0.378273643212834</v>
+        <v>0.2690834924840127</v>
       </c>
       <c r="P11">
-        <v>0.3782736432128339</v>
+        <v>0.2690834924840128</v>
       </c>
       <c r="Q11">
-        <v>1.574180480082</v>
+        <v>0.035270319231</v>
       </c>
       <c r="R11">
-        <v>14.167624320738</v>
+        <v>0.317432873079</v>
       </c>
       <c r="S11">
-        <v>0.01222393556345792</v>
+        <v>0.0001926705362350115</v>
       </c>
       <c r="T11">
-        <v>0.01222393556345792</v>
+        <v>0.0001926705362350115</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1148,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.3437993333333333</v>
+        <v>0.007703000000000001</v>
       </c>
       <c r="H12">
-        <v>1.031398</v>
+        <v>0.023109</v>
       </c>
       <c r="I12">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233982</v>
       </c>
       <c r="J12">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233983</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.574363333333334</v>
+        <v>4.495828</v>
       </c>
       <c r="N12">
-        <v>10.72309</v>
+        <v>13.487484</v>
       </c>
       <c r="O12">
-        <v>0.2952944509563076</v>
+        <v>0.2642087832291055</v>
       </c>
       <c r="P12">
-        <v>0.2952944509563076</v>
+        <v>0.2642087832291055</v>
       </c>
       <c r="Q12">
-        <v>1.228863731091111</v>
+        <v>0.03463136308400001</v>
       </c>
       <c r="R12">
-        <v>11.05977357982</v>
+        <v>0.311682267756</v>
       </c>
       <c r="S12">
-        <v>0.009542457967936274</v>
+        <v>0.0001891801220239333</v>
       </c>
       <c r="T12">
-        <v>0.009542457967936274</v>
+        <v>0.0001891801220239333</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,25 +1210,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.3437993333333333</v>
+        <v>0.007703000000000001</v>
       </c>
       <c r="H13">
-        <v>1.031398</v>
+        <v>0.023109</v>
       </c>
       <c r="I13">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233982</v>
       </c>
       <c r="J13">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233983</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8728403333333333</v>
+        <v>6.346716</v>
       </c>
       <c r="N13">
-        <v>2.618521</v>
+        <v>19.040148</v>
       </c>
       <c r="O13">
-        <v>0.07210931932983511</v>
+        <v>0.3729809307341596</v>
       </c>
       <c r="P13">
-        <v>0.07210931932983509</v>
+        <v>0.3729809307341597</v>
       </c>
       <c r="Q13">
-        <v>0.3000819247064445</v>
+        <v>0.048888753348</v>
       </c>
       <c r="R13">
-        <v>2.700737322358</v>
+        <v>0.439998780132</v>
       </c>
       <c r="S13">
-        <v>0.002330216997214278</v>
+        <v>0.0002670637104736323</v>
       </c>
       <c r="T13">
-        <v>0.002330216997214278</v>
+        <v>0.0002670637104736325</v>
       </c>
     </row>
   </sheetData>
